--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H2">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I2">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J2">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>2669.287810996259</v>
+        <v>59.36469441495555</v>
       </c>
       <c r="R2">
-        <v>2669.287810996259</v>
+        <v>534.2822497346</v>
       </c>
       <c r="S2">
-        <v>0.2575562092200881</v>
+        <v>0.005425599455968063</v>
       </c>
       <c r="T2">
-        <v>0.2575562092200881</v>
+        <v>0.005425599455968064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H3">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I3">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J3">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>2841.300891509883</v>
+        <v>62.57258698714999</v>
       </c>
       <c r="R3">
-        <v>2841.300891509883</v>
+        <v>563.15328288435</v>
       </c>
       <c r="S3">
-        <v>0.2741535340836154</v>
+        <v>0.005718782809576255</v>
       </c>
       <c r="T3">
-        <v>0.2741535340836154</v>
+        <v>0.005718782809576256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H4">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I4">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J4">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>1832.141781056342</v>
+        <v>40.42746652333889</v>
       </c>
       <c r="R4">
-        <v>1832.141781056342</v>
+        <v>363.84719871005</v>
       </c>
       <c r="S4">
-        <v>0.1767810462171527</v>
+        <v>0.003694843248783508</v>
       </c>
       <c r="T4">
-        <v>0.1767810462171527</v>
+        <v>0.00369484324878351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H5">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I5">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J5">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>1420.603289676974</v>
+        <v>31.53241369377222</v>
       </c>
       <c r="R5">
-        <v>1420.603289676974</v>
+        <v>283.79172324395</v>
       </c>
       <c r="S5">
-        <v>0.137072217011409</v>
+        <v>0.002881885407957062</v>
       </c>
       <c r="T5">
-        <v>0.137072217011409</v>
+        <v>0.002881885407957062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H6">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I6">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J6">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>939.1581172510087</v>
+        <v>21.66067571738888</v>
       </c>
       <c r="R6">
-        <v>939.1581172510087</v>
+        <v>194.9460814565</v>
       </c>
       <c r="S6">
-        <v>0.09061818045284732</v>
+        <v>0.001979664033418469</v>
       </c>
       <c r="T6">
-        <v>0.09061818045284732</v>
+        <v>0.00197966403341847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.12247951851364</v>
+        <v>16.677026</v>
       </c>
       <c r="H7">
-        <v>1.12247951851364</v>
+        <v>50.03107799999999</v>
       </c>
       <c r="I7">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793505</v>
       </c>
       <c r="J7">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793506</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>181.9634725212626</v>
+        <v>2730.229035915618</v>
       </c>
       <c r="R7">
-        <v>181.9634725212626</v>
+        <v>24572.06132324056</v>
       </c>
       <c r="S7">
-        <v>0.01755742561968554</v>
+        <v>0.24952759073245</v>
       </c>
       <c r="T7">
-        <v>0.01755742561968554</v>
+        <v>0.2495275907324501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.12247951851364</v>
+        <v>16.677026</v>
       </c>
       <c r="H8">
-        <v>1.12247951851364</v>
+        <v>50.03107799999999</v>
       </c>
       <c r="I8">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793505</v>
       </c>
       <c r="J8">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793506</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>193.6894832273379</v>
+        <v>2877.762540989921</v>
       </c>
       <c r="R8">
-        <v>193.6894832273379</v>
+        <v>25899.86286890929</v>
       </c>
       <c r="S8">
-        <v>0.018688853581215</v>
+        <v>0.2630113239977651</v>
       </c>
       <c r="T8">
-        <v>0.018688853581215</v>
+        <v>0.2630113239977652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.12247951851364</v>
+        <v>16.677026</v>
       </c>
       <c r="H9">
-        <v>1.12247951851364</v>
+        <v>50.03107799999999</v>
       </c>
       <c r="I9">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793505</v>
       </c>
       <c r="J9">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793506</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>124.8958165016586</v>
+        <v>1859.291015279272</v>
       </c>
       <c r="R9">
-        <v>124.8958165016586</v>
+        <v>16733.61913751345</v>
       </c>
       <c r="S9">
-        <v>0.01205103957433835</v>
+        <v>0.1699287500828801</v>
       </c>
       <c r="T9">
-        <v>0.01205103957433835</v>
+        <v>0.1699287500828802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12247951851364</v>
+        <v>16.677026</v>
       </c>
       <c r="H10">
-        <v>1.12247951851364</v>
+        <v>50.03107799999999</v>
       </c>
       <c r="I10">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793505</v>
       </c>
       <c r="J10">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793506</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>96.84152701700307</v>
+        <v>1450.200532280541</v>
       </c>
       <c r="R10">
-        <v>96.84152701700307</v>
+        <v>13051.80479052486</v>
       </c>
       <c r="S10">
-        <v>0.009344116618235671</v>
+        <v>0.1325401789148886</v>
       </c>
       <c r="T10">
-        <v>0.009344116618235671</v>
+        <v>0.1325401789148886</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>16.677026</v>
+      </c>
+      <c r="H11">
+        <v>50.03107799999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9060541512793505</v>
+      </c>
+      <c r="J11">
+        <v>0.9060541512793506</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N11">
+        <v>179.20309</v>
+      </c>
+      <c r="O11">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P11">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q11">
+        <v>996.1915304034464</v>
+      </c>
+      <c r="R11">
+        <v>8965.723773631018</v>
+      </c>
+      <c r="S11">
+        <v>0.09104630755136651</v>
+      </c>
+      <c r="T11">
+        <v>0.09104630755136651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.099712</v>
+      </c>
+      <c r="I12">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J12">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N12">
+        <v>491.135956</v>
+      </c>
+      <c r="O12">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P12">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q12">
+        <v>223.7239969382969</v>
+      </c>
+      <c r="R12">
+        <v>2013.515972444672</v>
+      </c>
+      <c r="S12">
+        <v>0.0204471160516852</v>
+      </c>
+      <c r="T12">
+        <v>0.02044711605168521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.12247951851364</v>
-      </c>
-      <c r="H11">
-        <v>1.12247951851364</v>
-      </c>
-      <c r="I11">
-        <v>0.06381881301488745</v>
-      </c>
-      <c r="J11">
-        <v>0.06381881301488745</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N11">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O11">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P11">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q11">
-        <v>64.02174825716615</v>
-      </c>
-      <c r="R11">
-        <v>64.02174825716615</v>
-      </c>
-      <c r="S11">
-        <v>0.006177377621412892</v>
-      </c>
-      <c r="T11">
-        <v>0.006177377621412892</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.099712</v>
+      </c>
+      <c r="I13">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J13">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>172.558497</v>
+      </c>
+      <c r="N13">
+        <v>517.675491</v>
+      </c>
+      <c r="O13">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P13">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q13">
+        <v>235.813380284288</v>
+      </c>
+      <c r="R13">
+        <v>2122.320422558592</v>
+      </c>
+      <c r="S13">
+        <v>0.02155201775043756</v>
+      </c>
+      <c r="T13">
+        <v>0.02155201775043756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.099712</v>
+      </c>
+      <c r="I14">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J14">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N14">
+        <v>334.464493</v>
+      </c>
+      <c r="O14">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P14">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q14">
+        <v>152.3564550584462</v>
+      </c>
+      <c r="R14">
+        <v>1371.208095526016</v>
+      </c>
+      <c r="S14">
+        <v>0.01392452379018866</v>
+      </c>
+      <c r="T14">
+        <v>0.01392452379018867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.099712</v>
+      </c>
+      <c r="I15">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J15">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N15">
+        <v>260.873947</v>
+      </c>
+      <c r="O15">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P15">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q15">
+        <v>118.8342278892516</v>
+      </c>
+      <c r="R15">
+        <v>1069.508051003264</v>
+      </c>
+      <c r="S15">
+        <v>0.01086078061279263</v>
+      </c>
+      <c r="T15">
+        <v>0.01086078061279263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.099712</v>
+      </c>
+      <c r="I16">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J16">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N16">
+        <v>179.20309</v>
+      </c>
+      <c r="O16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q16">
+        <v>81.63122872334222</v>
+      </c>
+      <c r="R16">
+        <v>734.68105851008</v>
+      </c>
+      <c r="S16">
+        <v>0.007460635559841984</v>
+      </c>
+      <c r="T16">
+        <v>0.007460635559841985</v>
       </c>
     </row>
   </sheetData>
